--- a/archive/Sorting/07-29Sorting Night shift.xlsx
+++ b/archive/Sorting/07-29Sorting Night shift.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Rates</t>
   </si>
   <si>
-    <t>Gnamien,Gbasse</t>
+    <t>Anthony,Alexander</t>
   </si>
   <si>
     <t>Job-Bright,Dzameshie</t>
@@ -58,7 +58,16 @@
     <t>Manuel,Martinez Suarez</t>
   </si>
   <si>
-    <t>Edgar,Feliciano</t>
+    <t>Deron,Fuller</t>
+  </si>
+  <si>
+    <t>Crystal,Knott</t>
+  </si>
+  <si>
+    <t>Miguel,Barros</t>
+  </si>
+  <si>
+    <t>Luis,Vargas Jaquez</t>
   </si>
   <si>
     <t>Total</t>
@@ -455,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="E2">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -522,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>86</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,13 +545,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="E3">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -557,10 +566,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>74</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,13 +580,13 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -592,10 +601,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K4">
-        <v>59.33333333333334</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,13 +615,13 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -630,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,13 +650,13 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -662,10 +671,112 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="K6">
-        <v>83.42857142857143</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>146</v>
+      </c>
+      <c r="D9">
+        <v>244</v>
+      </c>
+      <c r="E9">
+        <v>372</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>182</v>
+      </c>
+      <c r="K9">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -675,13 +786,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -700,77 +811,113 @@
       <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>128</v>
-      </c>
-      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C3">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>216</v>
-      </c>
-      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>244</v>
+      </c>
+      <c r="J3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="C4">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F4">
-        <v>220</v>
-      </c>
-      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>372</v>
+      </c>
+      <c r="J4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,11 +936,20 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -812,11 +968,20 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,11 +1000,20 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,30 +1032,48 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>148</v>
-      </c>
-      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>182</v>
+      </c>
+      <c r="J9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -900,19 +1092,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -920,19 +1112,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="E2">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>572</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -940,19 +1132,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="D3">
-        <v>454</v>
+        <v>346</v>
       </c>
       <c r="E3">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>774</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -960,19 +1152,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>392</v>
       </c>
       <c r="D4">
-        <v>711</v>
+        <v>611</v>
       </c>
       <c r="E4">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1448</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -980,19 +1172,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="D5">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="E5">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1149</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -1010,13 +1202,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1024,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="C2">
-        <v>712</v>
+        <v>944</v>
       </c>
       <c r="D2">
-        <v>-688</v>
+        <v>-656</v>
       </c>
     </row>
   </sheetData>

--- a/archive/Sorting/07-29Sorting Night shift.xlsx
+++ b/archive/Sorting/07-29Sorting Night shift.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -61,10 +61,43 @@
     <t>Deron,Fuller</t>
   </si>
   <si>
+    <t>Jonathan,Perez Henriquez</t>
+  </si>
+  <si>
+    <t>Edison,Rodriguez Gonzalez</t>
+  </si>
+  <si>
+    <t>Richardo,Reid</t>
+  </si>
+  <si>
+    <t>Edwin,Santos</t>
+  </si>
+  <si>
     <t>Crystal,Knott</t>
   </si>
   <si>
+    <t>Elia,Uruchima</t>
+  </si>
+  <si>
     <t>Miguel,Barros</t>
+  </si>
+  <si>
+    <t>Napoleon,Arnaud Hernandez</t>
+  </si>
+  <si>
+    <t>Nana,Dompo</t>
+  </si>
+  <si>
+    <t>Anderson,Cespedes</t>
+  </si>
+  <si>
+    <t>Isaias,Basora Lugo</t>
+  </si>
+  <si>
+    <t>Armando,Merchan Vera</t>
+  </si>
+  <si>
+    <t>Edgar,Feliciano</t>
   </si>
   <si>
     <t>Luis,Vargas Jaquez</t>
@@ -464,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +657,7 @@
         <v>57</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -650,31 +683,31 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>39</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J6">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>52.66666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -691,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -709,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -726,13 +759,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,6 +775,9 @@
       </c>
       <c r="J8">
         <v>0</v>
+      </c>
+      <c r="K8">
+        <v>46.5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -752,31 +788,413 @@
         <v>17</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>54</v>
+      </c>
+      <c r="H10">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>61</v>
+      </c>
+      <c r="K10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>23</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>23</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
         <v>146</v>
       </c>
-      <c r="D9">
+      <c r="D20">
         <v>244</v>
       </c>
-      <c r="E9">
+      <c r="E20">
         <v>372</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="F20">
+        <v>347</v>
+      </c>
+      <c r="G20">
+        <v>196</v>
+      </c>
+      <c r="H20">
+        <v>112</v>
+      </c>
+      <c r="I20">
+        <v>89</v>
+      </c>
+      <c r="J20">
         <v>182</v>
       </c>
-      <c r="K9">
-        <v>114</v>
+      <c r="K20">
+        <v>220.2857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -786,13 +1204,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -820,8 +1238,41 @@
       <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -838,22 +1289,55 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>7</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>146</v>
       </c>
-      <c r="J2" t="s">
+      <c r="U2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -870,22 +1354,55 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>39</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>244</v>
       </c>
-      <c r="J3" t="s">
+      <c r="U3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -905,19 +1422,52 @@
         <v>0</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>34</v>
       </c>
-      <c r="H4">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="T4">
         <v>372</v>
       </c>
-      <c r="J4" t="s">
+      <c r="U4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -931,25 +1481,58 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>32</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>31</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>11</v>
+      </c>
+      <c r="Q5">
+        <v>23</v>
+      </c>
+      <c r="R5">
+        <v>23</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>347</v>
+      </c>
+      <c r="U5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -966,22 +1549,55 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>54</v>
+      </c>
+      <c r="K6">
+        <v>47</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>29</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>196</v>
+      </c>
+      <c r="U6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -998,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1009,11 +1625,44 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>112</v>
+      </c>
+      <c r="U7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1041,11 +1690,44 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>89</v>
+      </c>
+      <c r="U8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1062,18 +1744,51 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>61</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>182</v>
       </c>
-      <c r="J9" t="s">
+      <c r="U9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1092,19 +1807,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1112,19 +1827,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="D2">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="F2">
-        <v>358</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1132,19 +1847,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>149</v>
+        <v>301</v>
       </c>
       <c r="D3">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="F3">
-        <v>495</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1152,19 +1867,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>392</v>
+        <v>643</v>
       </c>
       <c r="D4">
-        <v>611</v>
+        <v>661</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="F4">
-        <v>1003</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1172,19 +1887,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>303</v>
+        <v>498</v>
       </c>
       <c r="D5">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="F5">
-        <v>822</v>
+        <v>1503</v>
       </c>
     </row>
   </sheetData>
@@ -1202,13 +1917,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1216,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="C2">
-        <v>944</v>
+        <v>1688</v>
       </c>
       <c r="D2">
-        <v>-656</v>
+        <v>-2112</v>
       </c>
     </row>
   </sheetData>
